--- a/posesiones/1486023.xlsx
+++ b/posesiones/1486023.xlsx
@@ -1886,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>23</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>14</v>
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>13</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>4</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>7</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>20</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18">
         <v>10</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>15</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>8</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R24">
         <v>22</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R28">
         <v>16</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3242,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R30">
         <v>14</v>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R32">
         <v>15</v>
@@ -3395,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R33">
         <v>16</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R37">
         <v>25</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3739,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R40">
         <v>28</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4030,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R46">
         <v>10</v>
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R47">
         <v>15</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4280,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R51">
         <v>36</v>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4380,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R53">
         <v>25</v>
@@ -4430,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4480,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R55">
         <v>19</v>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4721,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R60">
         <v>16</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4824,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R62">
         <v>12</v>
@@ -4874,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4924,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R64">
         <v>18</v>
@@ -4977,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R65">
         <v>35</v>
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5171,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R70">
         <v>16</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5327,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R72">
         <v>6</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R75">
         <v>12</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R78">
         <v>8</v>
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5818,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R82">
         <v>24</v>
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5918,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R84">
         <v>12</v>
@@ -5971,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R85">
         <v>41</v>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6068,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R88">
         <v>17</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6547,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R97">
         <v>0</v>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -6747,10 +6747,10 @@
         <v>1</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6844,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6885,10 +6885,10 @@
         <v>1</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7129,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R109">
         <v>22</v>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7279,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R112">
         <v>6</v>
@@ -7329,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7423,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R115">
         <v>20</v>
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7526,7 +7526,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R117">
         <v>15</v>
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7626,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R119">
         <v>7</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7726,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R121">
         <v>15</v>
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7873,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R124">
         <v>13</v>
@@ -7926,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R125">
         <v>16</v>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8120,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8214,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R133">
         <v>16</v>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8452,7 +8452,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R136">
         <v>21</v>
@@ -8502,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8884,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R145">
         <v>18</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8987,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R147">
         <v>15</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9087,7 +9087,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R149">
         <v>26</v>
@@ -9137,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9187,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R151">
         <v>5</v>
@@ -9240,7 +9240,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R152">
         <v>16</v>
@@ -9293,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9340,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9528,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9622,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9672,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9722,7 +9722,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R162">
         <v>31</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9822,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9922,7 +9922,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R166">
         <v>13</v>
@@ -9975,7 +9975,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R167">
         <v>11</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10119,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10216,7 +10216,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R172">
         <v>17</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10319,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R174">
         <v>12</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10422,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R176">
         <v>12</v>
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10569,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10619,7 +10619,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R180">
         <v>11</v>
@@ -10669,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10716,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10763,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10857,7 +10857,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10954,7 +10954,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R187">
         <v>15</v>
@@ -11007,7 +11007,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R188">
         <v>3</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R190">
         <v>6</v>
@@ -11163,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11213,7 +11213,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R192">
         <v>7</v>
@@ -11263,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11310,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11404,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R199">
         <v>21</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11645,7 +11645,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11692,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11742,7 +11742,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R203">
         <v>10</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11842,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11892,7 +11892,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R206">
         <v>17</v>
@@ -11945,7 +11945,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R207">
         <v>11</v>
@@ -11995,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12045,7 +12045,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R209">
         <v>17</v>
@@ -12098,7 +12098,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12192,7 +12192,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12239,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R214">
         <v>6</v>
@@ -12342,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R215">
         <v>16</v>
@@ -12392,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12442,7 +12442,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R217">
         <v>18</v>
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12545,7 +12545,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R219">
         <v>12</v>
@@ -12595,7 +12595,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12692,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12739,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12789,7 +12789,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R224">
         <v>16</v>
@@ -12839,7 +12839,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12886,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12983,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R228">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13171,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13218,7 +13218,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13312,7 +13312,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13362,7 +13362,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R236">
         <v>15</v>
@@ -13412,7 +13412,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13506,7 +13506,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13553,7 +13553,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13603,7 +13603,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R241">
         <v>15</v>
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13747,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13794,7 +13794,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13841,7 +13841,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13888,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13935,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13982,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14079,7 +14079,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R251">
         <v>17</v>
@@ -14129,7 +14129,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14223,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14270,7 +14270,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14317,7 +14317,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14367,7 +14367,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R257">
         <v>13</v>
@@ -14417,7 +14417,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14464,7 +14464,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14511,7 +14511,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14558,7 +14558,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14605,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14652,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14699,7 +14699,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14746,7 +14746,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14793,7 +14793,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14843,7 +14843,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R267">
         <v>26</v>
@@ -14896,7 +14896,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R268">
         <v>0</v>
@@ -14940,10 +14940,10 @@
         <v>1</v>
       </c>
       <c r="P269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q269">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14990,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15037,7 +15037,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15131,7 +15131,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15178,7 +15178,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15225,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15266,10 +15266,10 @@
         <v>1</v>
       </c>
       <c r="P276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q276">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15319,7 +15319,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R277">
         <v>12</v>
@@ -15369,7 +15369,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15419,7 +15419,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R279">
         <v>5</v>
@@ -15469,7 +15469,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R281">
         <v>6</v>
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15619,7 +15619,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R283">
         <v>13</v>
@@ -15669,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15716,7 +15716,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15763,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15813,7 +15813,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R287">
         <v>14</v>
@@ -15866,7 +15866,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15916,7 +15916,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R289">
         <v>13</v>
@@ -15966,7 +15966,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16013,7 +16013,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16060,7 +16060,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16107,7 +16107,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16157,7 +16157,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R294">
         <v>24</v>
@@ -16210,7 +16210,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R295">
         <v>21</v>
@@ -16260,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16310,7 +16310,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R297">
         <v>17</v>
@@ -16360,7 +16360,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16410,7 +16410,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R299">
         <v>14</v>
@@ -16457,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16504,7 +16504,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16551,7 +16551,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16601,7 +16601,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R303">
         <v>19</v>
@@ -16654,7 +16654,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R304">
         <v>15</v>
@@ -16707,7 +16707,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16757,7 +16757,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R306">
         <v>7</v>
@@ -16810,7 +16810,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R307">
         <v>10</v>
@@ -16863,7 +16863,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16913,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R309">
         <v>8</v>
@@ -16966,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17016,7 +17016,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R311">
         <v>10</v>
@@ -17066,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17116,7 +17116,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R313">
         <v>23</v>
@@ -17166,7 +17166,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17216,7 +17216,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R315">
         <v>12</v>
@@ -17266,7 +17266,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17316,7 +17316,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R317">
         <v>24</v>
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17419,7 +17419,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R319">
         <v>10</v>
@@ -17472,7 +17472,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17522,7 +17522,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R321">
         <v>5</v>
@@ -17572,7 +17572,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17622,7 +17622,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R323">
         <v>5</v>
@@ -17675,7 +17675,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17725,7 +17725,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R325">
         <v>7</v>
@@ -17778,7 +17778,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17825,7 +17825,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17875,7 +17875,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17925,7 +17925,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R329">
         <v>10</v>
@@ -17975,7 +17975,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18022,7 +18022,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18069,7 +18069,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18116,7 +18116,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18163,7 +18163,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18210,7 +18210,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18260,7 +18260,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R336">
         <v>0</v>
@@ -18313,7 +18313,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R337">
         <v>17</v>
@@ -18366,7 +18366,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18416,7 +18416,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R339">
         <v>7</v>
@@ -18466,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18516,7 +18516,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18563,7 +18563,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18610,7 +18610,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18660,7 +18660,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R344">
         <v>15</v>
@@ -18713,7 +18713,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R345">
         <v>14</v>
@@ -18766,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18813,7 +18813,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18910,7 +18910,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R349">
         <v>14</v>
@@ -18963,7 +18963,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19013,7 +19013,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R351">
         <v>25</v>
@@ -19066,7 +19066,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19113,7 +19113,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19166,7 +19166,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R354">
         <v>13</v>
@@ -19216,7 +19216,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19263,7 +19263,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19310,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19360,7 +19360,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R358">
         <v>13</v>
@@ -19410,7 +19410,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19457,7 +19457,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19557,7 +19557,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R362">
         <v>25</v>
@@ -19610,7 +19610,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R363">
         <v>16</v>
@@ -19663,7 +19663,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R364">
         <v>14</v>
@@ -19716,7 +19716,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R365">
         <v>17</v>
@@ -19766,7 +19766,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19816,7 +19816,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R367">
         <v>20</v>
@@ -19866,7 +19866,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19913,7 +19913,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19963,7 +19963,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20013,7 +20013,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R371">
         <v>11</v>
@@ -20060,7 +20060,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20107,7 +20107,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20154,7 +20154,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20201,7 +20201,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20248,7 +20248,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20345,7 +20345,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R378">
         <v>8</v>
@@ -20398,7 +20398,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20448,7 +20448,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R380">
         <v>10</v>
@@ -20498,7 +20498,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20548,7 +20548,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R382">
         <v>12</v>
@@ -20598,7 +20598,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20645,7 +20645,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20692,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20739,7 +20739,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20789,7 +20789,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R387">
         <v>29</v>
@@ -20842,7 +20842,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20892,7 +20892,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R389">
         <v>11</v>
@@ -20942,7 +20942,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20992,7 +20992,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21042,7 +21042,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R392">
         <v>4</v>
@@ -21086,10 +21086,10 @@
         <v>1</v>
       </c>
       <c r="P393" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q393">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21136,7 +21136,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21183,7 +21183,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21224,10 +21224,10 @@
         <v>1</v>
       </c>
       <c r="P396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q396">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21277,7 +21277,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R397">
         <v>20</v>
@@ -21327,7 +21327,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21377,7 +21377,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R399">
         <v>10</v>
@@ -21427,7 +21427,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21477,7 +21477,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R401">
         <v>26</v>
@@ -21527,7 +21527,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21577,7 +21577,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R403">
         <v>11</v>
@@ -21627,7 +21627,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21677,7 +21677,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R405">
         <v>26</v>
@@ -21727,7 +21727,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21777,7 +21777,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R407">
         <v>12</v>
@@ -21830,7 +21830,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R408">
         <v>16</v>
@@ -21880,7 +21880,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21930,7 +21930,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R410">
         <v>13</v>
@@ -21983,7 +21983,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22030,7 +22030,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22083,7 +22083,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R413">
         <v>6</v>
@@ -22133,7 +22133,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22183,7 +22183,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R415">
         <v>15</v>
@@ -22233,7 +22233,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R416">
         <v>7</v>
@@ -22283,7 +22283,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22330,7 +22330,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22377,7 +22377,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22424,7 +22424,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22521,7 +22521,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22571,7 +22571,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R423">
         <v>12</v>
@@ -22624,7 +22624,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22674,7 +22674,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R425">
         <v>17</v>
@@ -22727,7 +22727,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22777,7 +22777,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R427">
         <v>11</v>
@@ -22830,7 +22830,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22880,7 +22880,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R429">
         <v>8</v>
@@ -22933,7 +22933,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R430">
         <v>15</v>
@@ -22986,7 +22986,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R431">
         <v>5</v>
@@ -23036,7 +23036,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23086,7 +23086,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R433">
         <v>5</v>
@@ -23136,7 +23136,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23180,7 +23180,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R436">
         <v>12</v>
@@ -23280,7 +23280,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23327,7 +23327,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23377,7 +23377,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23427,7 +23427,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R440">
         <v>22</v>
@@ -23477,7 +23477,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23524,7 +23524,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23571,7 +23571,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23621,7 +23621,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R444">
         <v>22</v>
@@ -23674,7 +23674,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23768,7 +23768,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23818,7 +23818,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R448">
         <v>20</v>
@@ -23871,7 +23871,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23921,7 +23921,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R450">
         <v>5</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24018,7 +24018,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24115,7 +24115,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R454">
         <v>0</v>
@@ -24168,7 +24168,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R455">
         <v>14</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24268,7 +24268,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R457">
         <v>17</v>
@@ -24318,7 +24318,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24368,7 +24368,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R459">
         <v>10</v>
@@ -24421,7 +24421,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R460">
         <v>11</v>
@@ -24471,7 +24471,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24521,7 +24521,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R462">
         <v>13</v>
@@ -24571,7 +24571,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24668,7 +24668,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R465">
         <v>21</v>
@@ -24718,7 +24718,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24765,7 +24765,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24862,7 +24862,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R469">
         <v>0</v>
@@ -24909,7 +24909,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24956,7 +24956,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25003,7 +25003,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25050,7 +25050,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25097,7 +25097,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25144,7 +25144,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25194,7 +25194,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R476">
         <v>9</v>
@@ -25247,7 +25247,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R477">
         <v>18</v>
@@ -25300,7 +25300,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25350,7 +25350,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R479">
         <v>12</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25453,7 +25453,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R481">
         <v>27</v>
@@ -25506,7 +25506,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25556,7 +25556,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R483">
         <v>9</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25659,7 +25659,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R485">
         <v>20</v>
@@ -25712,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25762,7 +25762,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R487">
         <v>18</v>
@@ -25815,7 +25815,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25865,7 +25865,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R489">
         <v>16</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25965,7 +25965,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R491">
         <v>6</v>
@@ -26015,7 +26015,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26062,7 +26062,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26112,7 +26112,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R494">
         <v>0</v>
@@ -26159,7 +26159,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26209,7 +26209,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R496">
         <v>30</v>
@@ -26259,7 +26259,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26306,7 +26306,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26353,7 +26353,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26403,7 +26403,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R500">
         <v>0</v>
@@ -26456,7 +26456,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26506,7 +26506,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R502">
         <v>5</v>
@@ -26556,7 +26556,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26603,7 +26603,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26650,7 +26650,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26747,7 +26747,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="R507">
         <v>4</v>
@@ -26800,7 +26800,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="R508">
         <v>7</v>
@@ -26850,7 +26850,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26897,7 +26897,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26994,7 +26994,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="R512">
         <v>5</v>
@@ -27047,7 +27047,7 @@
         <v>1</v>
       </c>
       <c r="Q513">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="R513">
         <v>7</v>
@@ -27103,7 +27103,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="R514">
         <v>0</v>
@@ -27147,10 +27147,10 @@
         <v>1</v>
       </c>
       <c r="P515" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q515">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27191,7 +27191,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
